--- a/plate layouts for initial B32.xlsx
+++ b/plate layouts for initial B32.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1909" uniqueCount="63">
   <si>
     <t>A</t>
   </si>
@@ -210,6 +210,12 @@
   <si>
     <t>0.0001 mM</t>
   </si>
+  <si>
+    <t>Dispensed vol (nL)</t>
+  </si>
+  <si>
+    <t>Dye vol (nL)</t>
+  </si>
 </sst>
 </file>
 
@@ -391,7 +397,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -441,30 +447,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,6 +463,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -765,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AL58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,20 +904,20 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -940,20 +955,20 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -991,30 +1006,30 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="21"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="AD5" s="26"/>
-      <c r="AE5" s="24" t="s">
+      <c r="AE5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="25" t="s">
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="23" t="s">
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AL5" s="23"/>
+      <c r="AL5" s="32"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1581,17 +1596,17 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="15"/>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="16"/>
@@ -1618,17 +1633,17 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="15"/>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="16"/>
@@ -1655,17 +1670,17 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="15"/>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="16"/>
@@ -1692,17 +1707,17 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="15"/>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="16"/>
@@ -1729,17 +1744,17 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="15"/>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="16"/>
@@ -1766,17 +1781,17 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="15"/>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="16"/>
@@ -1803,17 +1818,17 @@
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="15"/>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="16"/>
@@ -1840,17 +1855,17 @@
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="16"/>
@@ -1877,17 +1892,17 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="15"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="16"/>
@@ -1914,17 +1929,17 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="15"/>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="16"/>
@@ -1951,17 +1966,17 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="15"/>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="16"/>
@@ -1988,17 +2003,17 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="15"/>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="20" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="16"/>
@@ -2025,17 +2040,17 @@
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="15"/>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="20" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="16"/>
@@ -2062,17 +2077,17 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="15"/>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="16"/>
@@ -2099,17 +2114,17 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G36" s="16"/>
@@ -2136,17 +2151,17 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="15"/>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="16"/>
@@ -2298,22 +2313,22 @@
       <c r="G41" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H41" s="27" t="s">
+      <c r="H41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I41" s="27" t="s">
+      <c r="I41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="27" t="s">
+      <c r="J41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="28" t="s">
+      <c r="K41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="28" t="s">
+      <c r="L41" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="32" t="s">
+      <c r="M41" s="24" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="8" t="s">
@@ -2328,22 +2343,22 @@
       <c r="Q41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R41" s="27" t="s">
+      <c r="R41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S41" s="27" t="s">
+      <c r="S41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="27" t="s">
+      <c r="T41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U41" s="28" t="s">
+      <c r="U41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="V41" s="28" t="s">
+      <c r="V41" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="32" t="s">
+      <c r="W41" s="24" t="s">
         <v>19</v>
       </c>
       <c r="X41" s="11" t="s">
@@ -2375,22 +2390,22 @@
       <c r="G42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H42" s="27" t="s">
+      <c r="H42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I42" s="27" t="s">
+      <c r="I42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J42" s="27" t="s">
+      <c r="J42" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="28" t="s">
+      <c r="K42" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="28" t="s">
+      <c r="L42" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="32" t="s">
+      <c r="M42" s="24" t="s">
         <v>4</v>
       </c>
       <c r="N42" s="8" t="s">
@@ -2405,22 +2420,22 @@
       <c r="Q42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="27" t="s">
+      <c r="R42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="27" t="s">
+      <c r="S42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="T42" s="27" t="s">
+      <c r="T42" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="U42" s="28" t="s">
+      <c r="U42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="V42" s="28" t="s">
+      <c r="V42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="W42" s="32" t="s">
+      <c r="W42" s="24" t="s">
         <v>20</v>
       </c>
       <c r="X42" s="11" t="s">
@@ -2452,22 +2467,22 @@
       <c r="G43" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="27" t="s">
+      <c r="I43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="J43" s="27" t="s">
+      <c r="J43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K43" s="28" t="s">
+      <c r="K43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="28" t="s">
+      <c r="L43" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="M43" s="32" t="s">
+      <c r="M43" s="24" t="s">
         <v>5</v>
       </c>
       <c r="N43" s="8" t="s">
@@ -2482,22 +2497,22 @@
       <c r="Q43" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R43" s="27" t="s">
+      <c r="R43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S43" s="27" t="s">
+      <c r="S43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="T43" s="27" t="s">
+      <c r="T43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="U43" s="28" t="s">
+      <c r="U43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="V43" s="28" t="s">
+      <c r="V43" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="W43" s="32" t="s">
+      <c r="W43" s="24" t="s">
         <v>21</v>
       </c>
       <c r="X43" s="11" t="s">
@@ -2529,22 +2544,22 @@
       <c r="G44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I44" s="27" t="s">
+      <c r="I44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K44" s="28" t="s">
+      <c r="K44" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L44" s="28" t="s">
+      <c r="L44" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M44" s="32" t="s">
+      <c r="M44" s="24" t="s">
         <v>6</v>
       </c>
       <c r="N44" s="8" t="s">
@@ -2559,22 +2574,22 @@
       <c r="Q44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R44" s="27" t="s">
+      <c r="R44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S44" s="27" t="s">
+      <c r="S44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="T44" s="27" t="s">
+      <c r="T44" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U44" s="28" t="s">
+      <c r="U44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="V44" s="28" t="s">
+      <c r="V44" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="W44" s="32" t="s">
+      <c r="W44" s="24" t="s">
         <v>22</v>
       </c>
       <c r="X44" s="11" t="s">
@@ -2606,22 +2621,22 @@
       <c r="G45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H45" s="27" t="s">
+      <c r="H45" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="27" t="s">
+      <c r="I45" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="27" t="s">
+      <c r="J45" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K45" s="28" t="s">
+      <c r="K45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="28" t="s">
+      <c r="L45" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="M45" s="32" t="s">
+      <c r="M45" s="24" t="s">
         <v>7</v>
       </c>
       <c r="N45" s="8" t="s">
@@ -2636,22 +2651,22 @@
       <c r="Q45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="R45" s="27" t="s">
+      <c r="R45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="27" t="s">
+      <c r="S45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="T45" s="27" t="s">
+      <c r="T45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="28" t="s">
+      <c r="U45" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V45" s="28" t="s">
+      <c r="V45" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="W45" s="32" t="s">
+      <c r="W45" s="24" t="s">
         <v>23</v>
       </c>
       <c r="X45" s="11" t="s">
@@ -2683,22 +2698,22 @@
       <c r="G46" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I46" s="27" t="s">
+      <c r="I46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="27" t="s">
+      <c r="J46" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="28" t="s">
+      <c r="K46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="28" t="s">
+      <c r="L46" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="32" t="s">
+      <c r="M46" s="24" t="s">
         <v>8</v>
       </c>
       <c r="N46" s="8" t="s">
@@ -2713,22 +2728,22 @@
       <c r="Q46" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R46" s="27" t="s">
+      <c r="R46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S46" s="27" t="s">
+      <c r="S46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="T46" s="27" t="s">
+      <c r="T46" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="28" t="s">
+      <c r="U46" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="V46" s="28" t="s">
+      <c r="V46" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="W46" s="32" t="s">
+      <c r="W46" s="24" t="s">
         <v>24</v>
       </c>
       <c r="X46" s="11" t="s">
@@ -2760,22 +2775,22 @@
       <c r="G47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="27" t="s">
+      <c r="I47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K47" s="28" t="s">
+      <c r="K47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="28" t="s">
+      <c r="L47" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="24" t="s">
         <v>9</v>
       </c>
       <c r="N47" s="8" t="s">
@@ -2790,22 +2805,22 @@
       <c r="Q47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="R47" s="27" t="s">
+      <c r="R47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="27" t="s">
+      <c r="S47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="T47" s="27" t="s">
+      <c r="T47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="28" t="s">
+      <c r="U47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V47" s="28" t="s">
+      <c r="V47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="W47" s="32" t="s">
+      <c r="W47" s="24" t="s">
         <v>25</v>
       </c>
       <c r="X47" s="11" t="s">
@@ -2837,22 +2852,22 @@
       <c r="G48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="K48" s="28" t="s">
+      <c r="K48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="28" t="s">
+      <c r="L48" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M48" s="32" t="s">
+      <c r="M48" s="24" t="s">
         <v>10</v>
       </c>
       <c r="N48" s="8" t="s">
@@ -2867,22 +2882,22 @@
       <c r="Q48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R48" s="27" t="s">
+      <c r="R48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="27" t="s">
+      <c r="S48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="T48" s="27" t="s">
+      <c r="T48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="U48" s="28" t="s">
+      <c r="U48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="V48" s="28" t="s">
+      <c r="V48" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="W48" s="32" t="s">
+      <c r="W48" s="24" t="s">
         <v>26</v>
       </c>
       <c r="X48" s="11" t="s">
@@ -2914,22 +2929,22 @@
       <c r="G49" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="27" t="s">
+      <c r="I49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J49" s="27" t="s">
+      <c r="J49" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="K49" s="28" t="s">
+      <c r="K49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L49" s="28" t="s">
+      <c r="L49" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M49" s="32" t="s">
+      <c r="M49" s="24" t="s">
         <v>11</v>
       </c>
       <c r="N49" s="8" t="s">
@@ -2944,22 +2959,22 @@
       <c r="Q49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="R49" s="27" t="s">
+      <c r="R49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S49" s="27" t="s">
+      <c r="S49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="T49" s="27" t="s">
+      <c r="T49" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="U49" s="28" t="s">
+      <c r="U49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="V49" s="28" t="s">
+      <c r="V49" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="W49" s="32" t="s">
+      <c r="W49" s="24" t="s">
         <v>42</v>
       </c>
       <c r="X49" s="11" t="s">
@@ -2991,22 +3006,22 @@
       <c r="G50" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="27" t="s">
+      <c r="H50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="27" t="s">
+      <c r="I50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="27" t="s">
+      <c r="J50" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K50" s="28" t="s">
+      <c r="K50" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="L50" s="28" t="s">
+      <c r="L50" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="M50" s="32" t="s">
+      <c r="M50" s="24" t="s">
         <v>12</v>
       </c>
       <c r="N50" s="8" t="s">
@@ -3021,22 +3036,22 @@
       <c r="Q50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R50" s="27" t="s">
+      <c r="R50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="S50" s="27" t="s">
+      <c r="S50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="T50" s="27" t="s">
+      <c r="T50" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="U50" s="28" t="s">
+      <c r="U50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="V50" s="28" t="s">
+      <c r="V50" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="W50" s="32" t="s">
+      <c r="W50" s="24" t="s">
         <v>43</v>
       </c>
       <c r="X50" s="11" t="s">
@@ -3068,22 +3083,22 @@
       <c r="G51" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="H51" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="I51" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="27" t="s">
+      <c r="J51" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="K51" s="28" t="s">
+      <c r="K51" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="28" t="s">
+      <c r="L51" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M51" s="32" t="s">
+      <c r="M51" s="24" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="8" t="s">
@@ -3098,22 +3113,22 @@
       <c r="Q51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R51" s="27" t="s">
+      <c r="R51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="S51" s="27" t="s">
+      <c r="S51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="T51" s="27" t="s">
+      <c r="T51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="U51" s="28" t="s">
+      <c r="U51" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="V51" s="28" t="s">
+      <c r="V51" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="W51" s="32" t="s">
+      <c r="W51" s="24" t="s">
         <v>44</v>
       </c>
       <c r="X51" s="11" t="s">
@@ -3145,22 +3160,22 @@
       <c r="G52" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="I52" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="J52" s="27" t="s">
+      <c r="J52" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K52" s="28" t="s">
+      <c r="K52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="L52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M52" s="32" t="s">
+      <c r="M52" s="24" t="s">
         <v>14</v>
       </c>
       <c r="N52" s="8" t="s">
@@ -3175,22 +3190,22 @@
       <c r="Q52" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="R52" s="27" t="s">
+      <c r="R52" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S52" s="27" t="s">
+      <c r="S52" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="T52" s="27" t="s">
+      <c r="T52" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="U52" s="28" t="s">
+      <c r="U52" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="V52" s="28" t="s">
+      <c r="V52" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="W52" s="32" t="s">
+      <c r="W52" s="24" t="s">
         <v>45</v>
       </c>
       <c r="X52" s="11" t="s">
@@ -3222,22 +3237,22 @@
       <c r="G53" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I53" s="27" t="s">
+      <c r="I53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="J53" s="27" t="s">
+      <c r="J53" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K53" s="28" t="s">
+      <c r="K53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="28" t="s">
+      <c r="L53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M53" s="32" t="s">
+      <c r="M53" s="24" t="s">
         <v>15</v>
       </c>
       <c r="N53" s="8" t="s">
@@ -3252,22 +3267,22 @@
       <c r="Q53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R53" s="27" t="s">
+      <c r="R53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S53" s="27" t="s">
+      <c r="S53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="T53" s="27" t="s">
+      <c r="T53" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="U53" s="28" t="s">
+      <c r="U53" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="V53" s="28" t="s">
+      <c r="V53" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="W53" s="32" t="s">
+      <c r="W53" s="24" t="s">
         <v>46</v>
       </c>
       <c r="X53" s="11" t="s">
@@ -3299,22 +3314,22 @@
       <c r="G54" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="H54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="I54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J54" s="27" t="s">
+      <c r="J54" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="K54" s="28" t="s">
+      <c r="K54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L54" s="28" t="s">
+      <c r="L54" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="M54" s="32" t="s">
+      <c r="M54" s="24" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="8" t="s">
@@ -3329,22 +3344,22 @@
       <c r="Q54" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="R54" s="27" t="s">
+      <c r="R54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S54" s="27" t="s">
+      <c r="S54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="T54" s="27" t="s">
+      <c r="T54" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="U54" s="28" t="s">
+      <c r="U54" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="V54" s="28" t="s">
+      <c r="V54" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="W54" s="32" t="s">
+      <c r="W54" s="24" t="s">
         <v>47</v>
       </c>
       <c r="X54" s="11" t="s">
@@ -3376,22 +3391,22 @@
       <c r="G55" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="I55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="27" t="s">
+      <c r="J55" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="K55" s="28" t="s">
+      <c r="K55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L55" s="28" t="s">
+      <c r="L55" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M55" s="32" t="s">
+      <c r="M55" s="24" t="s">
         <v>17</v>
       </c>
       <c r="N55" s="8" t="s">
@@ -3406,22 +3421,22 @@
       <c r="Q55" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="R55" s="27" t="s">
+      <c r="R55" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="S55" s="27" t="s">
+      <c r="S55" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="T55" s="27" t="s">
+      <c r="T55" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="U55" s="28" t="s">
+      <c r="U55" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="V55" s="28" t="s">
+      <c r="V55" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="W55" s="32" t="s">
+      <c r="W55" s="24" t="s">
         <v>48</v>
       </c>
       <c r="X55" s="11" t="s">
@@ -3453,22 +3468,22 @@
       <c r="G56" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H56" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="27" t="s">
+      <c r="I56" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J56" s="27" t="s">
+      <c r="J56" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="28" t="s">
+      <c r="K56" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L56" s="28" t="s">
+      <c r="L56" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="M56" s="32" t="s">
+      <c r="M56" s="24" t="s">
         <v>18</v>
       </c>
       <c r="N56" s="8" t="s">
@@ -3483,22 +3498,22 @@
       <c r="Q56" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="R56" s="27" t="s">
+      <c r="R56" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S56" s="27" t="s">
+      <c r="S56" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="T56" s="27" t="s">
+      <c r="T56" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="U56" s="28" t="s">
+      <c r="U56" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="V56" s="28" t="s">
+      <c r="V56" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="W56" s="32" t="s">
+      <c r="W56" s="24" t="s">
         <v>49</v>
       </c>
       <c r="X56" s="11" t="s">
@@ -3506,6 +3521,138 @@
       </c>
       <c r="Y56" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="D57" s="33">
+        <v>100</v>
+      </c>
+      <c r="E57" s="33">
+        <v>50</v>
+      </c>
+      <c r="F57" s="33">
+        <v>25</v>
+      </c>
+      <c r="G57" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="H57" s="33">
+        <v>62.5</v>
+      </c>
+      <c r="I57" s="33">
+        <v>32.5</v>
+      </c>
+      <c r="J57" s="33">
+        <v>15</v>
+      </c>
+      <c r="K57" s="33">
+        <v>77.5</v>
+      </c>
+      <c r="L57" s="33">
+        <v>40</v>
+      </c>
+      <c r="M57" s="33">
+        <v>20</v>
+      </c>
+      <c r="N57" s="33">
+        <v>100</v>
+      </c>
+      <c r="O57" s="33">
+        <v>50</v>
+      </c>
+      <c r="P57" s="33">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="R57" s="33">
+        <v>62.5</v>
+      </c>
+      <c r="S57" s="33">
+        <v>32.5</v>
+      </c>
+      <c r="T57" s="33">
+        <v>15</v>
+      </c>
+      <c r="U57" s="33">
+        <v>77.5</v>
+      </c>
+      <c r="V57" s="33">
+        <v>40</v>
+      </c>
+      <c r="W57" s="33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="D58" s="33">
+        <v>100</v>
+      </c>
+      <c r="E58" s="33">
+        <v>50</v>
+      </c>
+      <c r="F58" s="33">
+        <v>25</v>
+      </c>
+      <c r="G58" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="H58" s="33">
+        <v>6.25</v>
+      </c>
+      <c r="I58" s="33">
+        <v>3.25</v>
+      </c>
+      <c r="J58" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="K58" s="33">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L58" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="M58" s="33">
+        <v>0.2</v>
+      </c>
+      <c r="N58" s="33">
+        <v>100</v>
+      </c>
+      <c r="O58" s="33">
+        <v>50</v>
+      </c>
+      <c r="P58" s="33">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="R58" s="33">
+        <v>6.25</v>
+      </c>
+      <c r="S58" s="33">
+        <v>3.25</v>
+      </c>
+      <c r="T58" s="33">
+        <v>1.5</v>
+      </c>
+      <c r="U58" s="33">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="V58" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="W58" s="33">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3650,20 +3797,20 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -3701,20 +3848,20 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3752,30 +3899,30 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="21"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="AD5" s="26"/>
-      <c r="AE5" s="24" t="s">
+      <c r="AE5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="25" t="s">
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="23" t="s">
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AL5" s="23"/>
+      <c r="AL5" s="32"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -4342,19 +4489,19 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -4383,19 +4530,19 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -4424,19 +4571,19 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -4465,19 +4612,19 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -4506,19 +4653,19 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -4547,19 +4694,19 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -4588,19 +4735,19 @@
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -4629,19 +4776,19 @@
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -4670,19 +4817,19 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -4711,19 +4858,19 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -4752,19 +4899,19 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -4793,19 +4940,19 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="20" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -4834,19 +4981,19 @@
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="20" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -4875,19 +5022,19 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -4916,19 +5063,19 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -4957,19 +5104,19 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -5078,12 +5225,12 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="7"/>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="16"/>
@@ -5111,12 +5258,12 @@
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="16"/>
@@ -5144,12 +5291,12 @@
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="16"/>
@@ -5177,12 +5324,12 @@
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="15"/>
       <c r="D44" s="7"/>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="16"/>
@@ -5210,12 +5357,12 @@
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="7"/>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="16"/>
@@ -5243,12 +5390,12 @@
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="16"/>
@@ -5276,12 +5423,12 @@
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="16"/>
@@ -5309,12 +5456,12 @@
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="7"/>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="16"/>
@@ -5342,12 +5489,12 @@
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="16"/>
@@ -5375,12 +5522,12 @@
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="16"/>
@@ -5408,12 +5555,12 @@
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F51" s="16"/>
@@ -5441,12 +5588,12 @@
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="7"/>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="16"/>
@@ -5474,12 +5621,12 @@
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="7"/>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F53" s="16"/>
@@ -5507,12 +5654,12 @@
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="16"/>
@@ -5540,12 +5687,12 @@
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="16"/>
@@ -5573,12 +5720,12 @@
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="16"/>
@@ -5728,16 +5875,16 @@
       <c r="F60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="I60" s="28" t="s">
+      <c r="I60" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="20" t="s">
         <v>3</v>
       </c>
       <c r="K60" s="5" t="s">
@@ -5746,7 +5893,7 @@
       <c r="L60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="30" t="s">
+      <c r="M60" s="22" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="8" t="s">
@@ -5758,16 +5905,16 @@
       <c r="P60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q60" s="27" t="s">
+      <c r="Q60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="27" t="s">
+      <c r="R60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="S60" s="28" t="s">
+      <c r="S60" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T60" s="28" t="s">
+      <c r="T60" s="20" t="s">
         <v>19</v>
       </c>
       <c r="U60" s="5" t="s">
@@ -5776,7 +5923,7 @@
       <c r="V60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W60" s="30" t="s">
+      <c r="W60" s="22" t="s">
         <v>19</v>
       </c>
       <c r="X60" s="11" t="s">
@@ -5805,16 +5952,16 @@
       <c r="F61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="27" t="s">
+      <c r="H61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I61" s="28" t="s">
+      <c r="I61" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="20" t="s">
         <v>4</v>
       </c>
       <c r="K61" s="5" t="s">
@@ -5823,7 +5970,7 @@
       <c r="L61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M61" s="30" t="s">
+      <c r="M61" s="22" t="s">
         <v>4</v>
       </c>
       <c r="N61" s="8" t="s">
@@ -5835,16 +5982,16 @@
       <c r="P61" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="27" t="s">
+      <c r="Q61" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="27" t="s">
+      <c r="R61" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="S61" s="28" t="s">
+      <c r="S61" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="T61" s="28" t="s">
+      <c r="T61" s="20" t="s">
         <v>20</v>
       </c>
       <c r="U61" s="5" t="s">
@@ -5853,7 +6000,7 @@
       <c r="V61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="30" t="s">
+      <c r="W61" s="22" t="s">
         <v>20</v>
       </c>
       <c r="X61" s="11" t="s">
@@ -5882,16 +6029,16 @@
       <c r="F62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="27" t="s">
+      <c r="H62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="28" t="s">
+      <c r="I62" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="20" t="s">
         <v>5</v>
       </c>
       <c r="K62" s="5" t="s">
@@ -5900,7 +6047,7 @@
       <c r="L62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="30" t="s">
+      <c r="M62" s="22" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="8" t="s">
@@ -5912,16 +6059,16 @@
       <c r="P62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q62" s="27" t="s">
+      <c r="Q62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="27" t="s">
+      <c r="R62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="S62" s="28" t="s">
+      <c r="S62" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="T62" s="28" t="s">
+      <c r="T62" s="20" t="s">
         <v>21</v>
       </c>
       <c r="U62" s="5" t="s">
@@ -5930,7 +6077,7 @@
       <c r="V62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="30" t="s">
+      <c r="W62" s="22" t="s">
         <v>21</v>
       </c>
       <c r="X62" s="11" t="s">
@@ -5959,16 +6106,16 @@
       <c r="F63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="27" t="s">
+      <c r="H63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I63" s="28" t="s">
+      <c r="I63" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J63" s="28" t="s">
+      <c r="J63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="K63" s="5" t="s">
@@ -5977,7 +6124,7 @@
       <c r="L63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M63" s="30" t="s">
+      <c r="M63" s="22" t="s">
         <v>6</v>
       </c>
       <c r="N63" s="8" t="s">
@@ -5989,16 +6136,16 @@
       <c r="P63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="27" t="s">
+      <c r="Q63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R63" s="27" t="s">
+      <c r="R63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S63" s="28" t="s">
+      <c r="S63" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="T63" s="28" t="s">
+      <c r="T63" s="20" t="s">
         <v>22</v>
       </c>
       <c r="U63" s="5" t="s">
@@ -6007,7 +6154,7 @@
       <c r="V63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W63" s="30" t="s">
+      <c r="W63" s="22" t="s">
         <v>22</v>
       </c>
       <c r="X63" s="11" t="s">
@@ -6036,16 +6183,16 @@
       <c r="F64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="27" t="s">
+      <c r="H64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I64" s="28" t="s">
+      <c r="I64" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J64" s="28" t="s">
+      <c r="J64" s="20" t="s">
         <v>7</v>
       </c>
       <c r="K64" s="5" t="s">
@@ -6054,7 +6201,7 @@
       <c r="L64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="30" t="s">
+      <c r="M64" s="22" t="s">
         <v>7</v>
       </c>
       <c r="N64" s="8" t="s">
@@ -6066,16 +6213,16 @@
       <c r="P64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="27" t="s">
+      <c r="Q64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="27" t="s">
+      <c r="R64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="S64" s="28" t="s">
+      <c r="S64" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="28" t="s">
+      <c r="T64" s="20" t="s">
         <v>23</v>
       </c>
       <c r="U64" s="5" t="s">
@@ -6084,7 +6231,7 @@
       <c r="V64" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W64" s="30" t="s">
+      <c r="W64" s="22" t="s">
         <v>23</v>
       </c>
       <c r="X64" s="11" t="s">
@@ -6113,16 +6260,16 @@
       <c r="F65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="27" t="s">
+      <c r="H65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I65" s="28" t="s">
+      <c r="I65" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J65" s="28" t="s">
+      <c r="J65" s="20" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="5" t="s">
@@ -6131,7 +6278,7 @@
       <c r="L65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M65" s="30" t="s">
+      <c r="M65" s="22" t="s">
         <v>8</v>
       </c>
       <c r="N65" s="8" t="s">
@@ -6143,16 +6290,16 @@
       <c r="P65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q65" s="27" t="s">
+      <c r="Q65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="27" t="s">
+      <c r="R65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="S65" s="28" t="s">
+      <c r="S65" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="T65" s="28" t="s">
+      <c r="T65" s="20" t="s">
         <v>24</v>
       </c>
       <c r="U65" s="5" t="s">
@@ -6161,7 +6308,7 @@
       <c r="V65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="W65" s="30" t="s">
+      <c r="W65" s="22" t="s">
         <v>24</v>
       </c>
       <c r="X65" s="11" t="s">
@@ -6190,16 +6337,16 @@
       <c r="F66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G66" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="27" t="s">
+      <c r="H66" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I66" s="28" t="s">
+      <c r="I66" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J66" s="28" t="s">
+      <c r="J66" s="20" t="s">
         <v>9</v>
       </c>
       <c r="K66" s="5" t="s">
@@ -6208,7 +6355,7 @@
       <c r="L66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="30" t="s">
+      <c r="M66" s="22" t="s">
         <v>9</v>
       </c>
       <c r="N66" s="8" t="s">
@@ -6220,16 +6367,16 @@
       <c r="P66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="27" t="s">
+      <c r="Q66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="27" t="s">
+      <c r="R66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="S66" s="28" t="s">
+      <c r="S66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="T66" s="28" t="s">
+      <c r="T66" s="20" t="s">
         <v>25</v>
       </c>
       <c r="U66" s="5" t="s">
@@ -6238,7 +6385,7 @@
       <c r="V66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="W66" s="30" t="s">
+      <c r="W66" s="22" t="s">
         <v>25</v>
       </c>
       <c r="X66" s="11" t="s">
@@ -6267,16 +6414,16 @@
       <c r="F67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="H67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I67" s="28" t="s">
+      <c r="I67" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="J67" s="28" t="s">
+      <c r="J67" s="20" t="s">
         <v>10</v>
       </c>
       <c r="K67" s="5" t="s">
@@ -6285,7 +6432,7 @@
       <c r="L67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M67" s="30" t="s">
+      <c r="M67" s="22" t="s">
         <v>10</v>
       </c>
       <c r="N67" s="8" t="s">
@@ -6297,16 +6444,16 @@
       <c r="P67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Q67" s="27" t="s">
+      <c r="Q67" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="27" t="s">
+      <c r="R67" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="S67" s="28" t="s">
+      <c r="S67" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="T67" s="28" t="s">
+      <c r="T67" s="20" t="s">
         <v>26</v>
       </c>
       <c r="U67" s="5" t="s">
@@ -6315,7 +6462,7 @@
       <c r="V67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="W67" s="30" t="s">
+      <c r="W67" s="22" t="s">
         <v>26</v>
       </c>
       <c r="X67" s="11" t="s">
@@ -6344,16 +6491,16 @@
       <c r="F68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="27" t="s">
+      <c r="H68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="28" t="s">
+      <c r="I68" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J68" s="28" t="s">
+      <c r="J68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="K68" s="5" t="s">
@@ -6362,7 +6509,7 @@
       <c r="L68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="30" t="s">
+      <c r="M68" s="22" t="s">
         <v>11</v>
       </c>
       <c r="N68" s="8" t="s">
@@ -6374,16 +6521,16 @@
       <c r="P68" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q68" s="27" t="s">
+      <c r="Q68" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R68" s="27" t="s">
+      <c r="R68" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="S68" s="28" t="s">
+      <c r="S68" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="T68" s="28" t="s">
+      <c r="T68" s="20" t="s">
         <v>42</v>
       </c>
       <c r="U68" s="5" t="s">
@@ -6392,7 +6539,7 @@
       <c r="V68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="W68" s="30" t="s">
+      <c r="W68" s="22" t="s">
         <v>42</v>
       </c>
       <c r="X68" s="11" t="s">
@@ -6421,16 +6568,16 @@
       <c r="F69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="27" t="s">
+      <c r="H69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="28" t="s">
+      <c r="I69" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="28" t="s">
+      <c r="J69" s="20" t="s">
         <v>12</v>
       </c>
       <c r="K69" s="5" t="s">
@@ -6439,7 +6586,7 @@
       <c r="L69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="30" t="s">
+      <c r="M69" s="22" t="s">
         <v>12</v>
       </c>
       <c r="N69" s="8" t="s">
@@ -6451,16 +6598,16 @@
       <c r="P69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="27" t="s">
+      <c r="Q69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R69" s="27" t="s">
+      <c r="R69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="S69" s="28" t="s">
+      <c r="S69" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="T69" s="28" t="s">
+      <c r="T69" s="20" t="s">
         <v>43</v>
       </c>
       <c r="U69" s="5" t="s">
@@ -6469,7 +6616,7 @@
       <c r="V69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="30" t="s">
+      <c r="W69" s="22" t="s">
         <v>43</v>
       </c>
       <c r="X69" s="11" t="s">
@@ -6498,16 +6645,16 @@
       <c r="F70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="27" t="s">
+      <c r="H70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="28" t="s">
+      <c r="I70" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="28" t="s">
+      <c r="J70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="K70" s="5" t="s">
@@ -6516,7 +6663,7 @@
       <c r="L70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M70" s="30" t="s">
+      <c r="M70" s="22" t="s">
         <v>13</v>
       </c>
       <c r="N70" s="8" t="s">
@@ -6528,16 +6675,16 @@
       <c r="P70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="Q70" s="27" t="s">
+      <c r="Q70" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R70" s="27" t="s">
+      <c r="R70" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="S70" s="28" t="s">
+      <c r="S70" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="T70" s="28" t="s">
+      <c r="T70" s="20" t="s">
         <v>44</v>
       </c>
       <c r="U70" s="5" t="s">
@@ -6546,7 +6693,7 @@
       <c r="V70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W70" s="30" t="s">
+      <c r="W70" s="22" t="s">
         <v>44</v>
       </c>
       <c r="X70" s="11" t="s">
@@ -6575,16 +6722,16 @@
       <c r="F71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="27" t="s">
+      <c r="H71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="28" t="s">
+      <c r="I71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="J71" s="28" t="s">
+      <c r="J71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="K71" s="5" t="s">
@@ -6593,7 +6740,7 @@
       <c r="L71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M71" s="30" t="s">
+      <c r="M71" s="22" t="s">
         <v>14</v>
       </c>
       <c r="N71" s="8" t="s">
@@ -6605,16 +6752,16 @@
       <c r="P71" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Q71" s="27" t="s">
+      <c r="Q71" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R71" s="27" t="s">
+      <c r="R71" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="S71" s="28" t="s">
+      <c r="S71" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="T71" s="28" t="s">
+      <c r="T71" s="20" t="s">
         <v>45</v>
       </c>
       <c r="U71" s="5" t="s">
@@ -6623,7 +6770,7 @@
       <c r="V71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="W71" s="30" t="s">
+      <c r="W71" s="22" t="s">
         <v>45</v>
       </c>
       <c r="X71" s="11" t="s">
@@ -6652,16 +6799,16 @@
       <c r="F72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="27" t="s">
+      <c r="H72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I72" s="28" t="s">
+      <c r="I72" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J72" s="28" t="s">
+      <c r="J72" s="20" t="s">
         <v>15</v>
       </c>
       <c r="K72" s="5" t="s">
@@ -6670,7 +6817,7 @@
       <c r="L72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="30" t="s">
+      <c r="M72" s="22" t="s">
         <v>15</v>
       </c>
       <c r="N72" s="8" t="s">
@@ -6682,16 +6829,16 @@
       <c r="P72" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Q72" s="27" t="s">
+      <c r="Q72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R72" s="27" t="s">
+      <c r="R72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="S72" s="28" t="s">
+      <c r="S72" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T72" s="28" t="s">
+      <c r="T72" s="20" t="s">
         <v>46</v>
       </c>
       <c r="U72" s="5" t="s">
@@ -6700,7 +6847,7 @@
       <c r="V72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="W72" s="30" t="s">
+      <c r="W72" s="22" t="s">
         <v>46</v>
       </c>
       <c r="X72" s="11" t="s">
@@ -6729,16 +6876,16 @@
       <c r="F73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="27" t="s">
+      <c r="H73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I73" s="28" t="s">
+      <c r="I73" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J73" s="28" t="s">
+      <c r="J73" s="20" t="s">
         <v>16</v>
       </c>
       <c r="K73" s="5" t="s">
@@ -6747,7 +6894,7 @@
       <c r="L73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M73" s="30" t="s">
+      <c r="M73" s="22" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="8" t="s">
@@ -6759,16 +6906,16 @@
       <c r="P73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Q73" s="27" t="s">
+      <c r="Q73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R73" s="27" t="s">
+      <c r="R73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="S73" s="28" t="s">
+      <c r="S73" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="T73" s="28" t="s">
+      <c r="T73" s="20" t="s">
         <v>47</v>
       </c>
       <c r="U73" s="5" t="s">
@@ -6777,7 +6924,7 @@
       <c r="V73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="W73" s="30" t="s">
+      <c r="W73" s="22" t="s">
         <v>47</v>
       </c>
       <c r="X73" s="11" t="s">
@@ -6806,16 +6953,16 @@
       <c r="F74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="27" t="s">
+      <c r="H74" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I74" s="28" t="s">
+      <c r="I74" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J74" s="28" t="s">
+      <c r="J74" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K74" s="5" t="s">
@@ -6824,7 +6971,7 @@
       <c r="L74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M74" s="30" t="s">
+      <c r="M74" s="22" t="s">
         <v>17</v>
       </c>
       <c r="N74" s="8" t="s">
@@ -6836,16 +6983,16 @@
       <c r="P74" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="27" t="s">
+      <c r="Q74" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R74" s="27" t="s">
+      <c r="R74" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="S74" s="28" t="s">
+      <c r="S74" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="T74" s="28" t="s">
+      <c r="T74" s="20" t="s">
         <v>48</v>
       </c>
       <c r="U74" s="5" t="s">
@@ -6854,7 +7001,7 @@
       <c r="V74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="W74" s="30" t="s">
+      <c r="W74" s="22" t="s">
         <v>48</v>
       </c>
       <c r="X74" s="11" t="s">
@@ -6883,16 +7030,16 @@
       <c r="F75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="27" t="s">
+      <c r="G75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="27" t="s">
+      <c r="H75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I75" s="28" t="s">
+      <c r="I75" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J75" s="28" t="s">
+      <c r="J75" s="20" t="s">
         <v>18</v>
       </c>
       <c r="K75" s="5" t="s">
@@ -6901,7 +7048,7 @@
       <c r="L75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M75" s="30" t="s">
+      <c r="M75" s="22" t="s">
         <v>18</v>
       </c>
       <c r="N75" s="8" t="s">
@@ -6913,16 +7060,16 @@
       <c r="P75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="Q75" s="27" t="s">
+      <c r="Q75" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R75" s="27" t="s">
+      <c r="R75" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="S75" s="28" t="s">
+      <c r="S75" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="T75" s="28" t="s">
+      <c r="T75" s="20" t="s">
         <v>49</v>
       </c>
       <c r="U75" s="5" t="s">
@@ -6931,7 +7078,7 @@
       <c r="V75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="W75" s="30" t="s">
+      <c r="W75" s="22" t="s">
         <v>49</v>
       </c>
       <c r="X75" s="11" t="s">
@@ -7083,20 +7230,20 @@
       <c r="W3" s="15"/>
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
-      <c r="AA3" s="19" t="s">
+      <c r="AA3" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -7134,20 +7281,20 @@
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
-      <c r="AA4" s="20" t="s">
+      <c r="AA4" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -7185,30 +7332,30 @@
       <c r="W5" s="15"/>
       <c r="X5" s="15"/>
       <c r="Y5" s="15"/>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="AB5" s="21"/>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="26" t="s">
         <v>51</v>
       </c>
       <c r="AD5" s="26"/>
-      <c r="AE5" s="24" t="s">
+      <c r="AE5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="25" t="s">
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="23" t="s">
+      <c r="AJ5" s="31"/>
+      <c r="AK5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="AL5" s="23"/>
+      <c r="AL5" s="32"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -7775,19 +7922,19 @@
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -7816,19 +7963,19 @@
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="20" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -7857,19 +8004,19 @@
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -7898,19 +8045,19 @@
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -7939,19 +8086,19 @@
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="20" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="28" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -7980,19 +8127,19 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="20" t="s">
         <v>24</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -8021,19 +8168,19 @@
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -8062,19 +8209,19 @@
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -8103,19 +8250,19 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="20" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="5" t="s">
@@ -8144,19 +8291,19 @@
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="20" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="5" t="s">
@@ -8185,19 +8332,19 @@
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="20" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="20" t="s">
         <v>44</v>
       </c>
       <c r="G32" s="5" t="s">
@@ -8226,19 +8373,19 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="20" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="20" t="s">
         <v>45</v>
       </c>
       <c r="G33" s="5" t="s">
@@ -8267,19 +8414,19 @@
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="20" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="20" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="5" t="s">
@@ -8308,19 +8455,19 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="27" t="s">
+      <c r="B35" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="20" t="s">
         <v>16</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="20" t="s">
         <v>47</v>
       </c>
       <c r="G35" s="5" t="s">
@@ -8349,19 +8496,19 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="20" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="20" t="s">
         <v>48</v>
       </c>
       <c r="G36" s="5" t="s">
@@ -8390,19 +8537,19 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="28" t="s">
+      <c r="F37" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G37" s="5" t="s">
@@ -8511,14 +8658,14 @@
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="15"/>
-      <c r="E41" s="29" t="s">
+      <c r="E41" s="21" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="7" t="s">
@@ -8548,14 +8695,14 @@
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="15"/>
-      <c r="E42" s="29" t="s">
+      <c r="E42" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F42" s="7" t="s">
@@ -8585,14 +8732,14 @@
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="15"/>
-      <c r="E43" s="29" t="s">
+      <c r="E43" s="21" t="s">
         <v>21</v>
       </c>
       <c r="F43" s="7" t="s">
@@ -8622,14 +8769,14 @@
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D44" s="15"/>
-      <c r="E44" s="29" t="s">
+      <c r="E44" s="21" t="s">
         <v>22</v>
       </c>
       <c r="F44" s="7" t="s">
@@ -8659,14 +8806,14 @@
       <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="15"/>
-      <c r="E45" s="29" t="s">
+      <c r="E45" s="21" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="7" t="s">
@@ -8696,14 +8843,14 @@
       <c r="A46" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="21" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="15"/>
-      <c r="E46" s="29" t="s">
+      <c r="E46" s="21" t="s">
         <v>24</v>
       </c>
       <c r="F46" s="7" t="s">
@@ -8733,14 +8880,14 @@
       <c r="A47" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="15"/>
-      <c r="E47" s="29" t="s">
+      <c r="E47" s="21" t="s">
         <v>25</v>
       </c>
       <c r="F47" s="7" t="s">
@@ -8770,14 +8917,14 @@
       <c r="A48" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="15"/>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="7" t="s">
@@ -8807,14 +8954,14 @@
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="21" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="15"/>
-      <c r="E49" s="29" t="s">
+      <c r="E49" s="21" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="7" t="s">
@@ -8844,14 +8991,14 @@
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="15"/>
-      <c r="E50" s="29" t="s">
+      <c r="E50" s="21" t="s">
         <v>43</v>
       </c>
       <c r="F50" s="7" t="s">
@@ -8881,14 +9028,14 @@
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C51" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="15"/>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F51" s="7" t="s">
@@ -8918,14 +9065,14 @@
       <c r="A52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="15"/>
-      <c r="E52" s="29" t="s">
+      <c r="E52" s="21" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="7" t="s">
@@ -8955,14 +9102,14 @@
       <c r="A53" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="15"/>
-      <c r="E53" s="29" t="s">
+      <c r="E53" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F53" s="7" t="s">
@@ -8992,14 +9139,14 @@
       <c r="A54" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="15"/>
-      <c r="E54" s="29" t="s">
+      <c r="E54" s="21" t="s">
         <v>47</v>
       </c>
       <c r="F54" s="7" t="s">
@@ -9029,14 +9176,14 @@
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="15"/>
-      <c r="E55" s="29" t="s">
+      <c r="E55" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F55" s="7" t="s">
@@ -9066,14 +9213,14 @@
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="21" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="29" t="s">
+      <c r="E56" s="21" t="s">
         <v>49</v>
       </c>
       <c r="F56" s="7" t="s">
@@ -9222,13 +9369,13 @@
       <c r="E60" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="20" t="s">
         <v>3</v>
       </c>
       <c r="I60" s="5" t="s">
@@ -9237,13 +9384,13 @@
       <c r="J60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="29" t="s">
+      <c r="K60" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="29" t="s">
+      <c r="L60" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="31" t="s">
+      <c r="M60" s="23" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="8" t="s">
@@ -9252,13 +9399,13 @@
       <c r="O60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="27" t="s">
+      <c r="P60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q60" s="27" t="s">
+      <c r="Q60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="R60" s="28" t="s">
+      <c r="R60" s="20" t="s">
         <v>19</v>
       </c>
       <c r="S60" s="5" t="s">
@@ -9267,13 +9414,13 @@
       <c r="T60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U60" s="29" t="s">
+      <c r="U60" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="V60" s="29" t="s">
+      <c r="V60" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="W60" s="31" t="s">
+      <c r="W60" s="23" t="s">
         <v>19</v>
       </c>
       <c r="X60" s="11" t="s">
@@ -9299,13 +9446,13 @@
       <c r="E61" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G61" s="27" t="s">
+      <c r="G61" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="20" t="s">
         <v>4</v>
       </c>
       <c r="I61" s="5" t="s">
@@ -9314,13 +9461,13 @@
       <c r="J61" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K61" s="29" t="s">
+      <c r="K61" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L61" s="29" t="s">
+      <c r="L61" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M61" s="31" t="s">
+      <c r="M61" s="23" t="s">
         <v>4</v>
       </c>
       <c r="N61" s="8" t="s">
@@ -9329,13 +9476,13 @@
       <c r="O61" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="P61" s="27" t="s">
+      <c r="P61" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q61" s="27" t="s">
+      <c r="Q61" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="R61" s="28" t="s">
+      <c r="R61" s="20" t="s">
         <v>20</v>
       </c>
       <c r="S61" s="5" t="s">
@@ -9344,13 +9491,13 @@
       <c r="T61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U61" s="29" t="s">
+      <c r="U61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="V61" s="29" t="s">
+      <c r="V61" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W61" s="31" t="s">
+      <c r="W61" s="23" t="s">
         <v>20</v>
       </c>
       <c r="X61" s="11" t="s">
@@ -9376,13 +9523,13 @@
       <c r="E62" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G62" s="27" t="s">
+      <c r="G62" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="20" t="s">
         <v>5</v>
       </c>
       <c r="I62" s="5" t="s">
@@ -9391,13 +9538,13 @@
       <c r="J62" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="29" t="s">
+      <c r="K62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="29" t="s">
+      <c r="L62" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="31" t="s">
+      <c r="M62" s="23" t="s">
         <v>5</v>
       </c>
       <c r="N62" s="8" t="s">
@@ -9406,13 +9553,13 @@
       <c r="O62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P62" s="27" t="s">
+      <c r="P62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="Q62" s="27" t="s">
+      <c r="Q62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="R62" s="28" t="s">
+      <c r="R62" s="20" t="s">
         <v>21</v>
       </c>
       <c r="S62" s="5" t="s">
@@ -9421,13 +9568,13 @@
       <c r="T62" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U62" s="29" t="s">
+      <c r="U62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="V62" s="29" t="s">
+      <c r="V62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W62" s="31" t="s">
+      <c r="W62" s="23" t="s">
         <v>21</v>
       </c>
       <c r="X62" s="11" t="s">
@@ -9453,13 +9600,13 @@
       <c r="E63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="27" t="s">
+      <c r="G63" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H63" s="28" t="s">
+      <c r="H63" s="20" t="s">
         <v>6</v>
       </c>
       <c r="I63" s="5" t="s">
@@ -9468,13 +9615,13 @@
       <c r="J63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K63" s="29" t="s">
+      <c r="K63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L63" s="29" t="s">
+      <c r="L63" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="M63" s="31" t="s">
+      <c r="M63" s="23" t="s">
         <v>6</v>
       </c>
       <c r="N63" s="8" t="s">
@@ -9483,13 +9630,13 @@
       <c r="O63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="27" t="s">
+      <c r="P63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Q63" s="27" t="s">
+      <c r="Q63" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="R63" s="28" t="s">
+      <c r="R63" s="20" t="s">
         <v>22</v>
       </c>
       <c r="S63" s="5" t="s">
@@ -9498,13 +9645,13 @@
       <c r="T63" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="U63" s="29" t="s">
+      <c r="U63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="V63" s="29" t="s">
+      <c r="V63" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="W63" s="31" t="s">
+      <c r="W63" s="23" t="s">
         <v>22</v>
       </c>
       <c r="X63" s="11" t="s">
@@ -9530,13 +9677,13 @@
       <c r="E64" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G64" s="27" t="s">
+      <c r="G64" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="H64" s="28" t="s">
+      <c r="H64" s="20" t="s">
         <v>7</v>
       </c>
       <c r="I64" s="5" t="s">
@@ -9545,13 +9692,13 @@
       <c r="J64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K64" s="29" t="s">
+      <c r="K64" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L64" s="29" t="s">
+      <c r="L64" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="M64" s="31" t="s">
+      <c r="M64" s="23" t="s">
         <v>7</v>
       </c>
       <c r="N64" s="8" t="s">
@@ -9560,13 +9707,13 @@
       <c r="O64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P64" s="27" t="s">
+      <c r="P64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Q64" s="27" t="s">
+      <c r="Q64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="R64" s="28" t="s">
+      <c r="R64" s="20" t="s">
         <v>23</v>
       </c>
       <c r="S64" s="5" t="s">
@@ -9575,13 +9722,13 @@
       <c r="T64" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="U64" s="29" t="s">
+      <c r="U64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="V64" s="29" t="s">
+      <c r="V64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="W64" s="31" t="s">
+      <c r="W64" s="23" t="s">
         <v>23</v>
       </c>
       <c r="X64" s="11" t="s">
@@ -9607,13 +9754,13 @@
       <c r="E65" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="27" t="s">
+      <c r="G65" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="28" t="s">
+      <c r="H65" s="20" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="5" t="s">
@@ -9622,13 +9769,13 @@
       <c r="J65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K65" s="29" t="s">
+      <c r="K65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L65" s="29" t="s">
+      <c r="L65" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M65" s="31" t="s">
+      <c r="M65" s="23" t="s">
         <v>8</v>
       </c>
       <c r="N65" s="8" t="s">
@@ -9637,13 +9784,13 @@
       <c r="O65" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P65" s="27" t="s">
+      <c r="P65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Q65" s="27" t="s">
+      <c r="Q65" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R65" s="28" t="s">
+      <c r="R65" s="20" t="s">
         <v>24</v>
       </c>
       <c r="S65" s="5" t="s">
@@ -9652,13 +9799,13 @@
       <c r="T65" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U65" s="29" t="s">
+      <c r="U65" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="V65" s="29" t="s">
+      <c r="V65" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="W65" s="31" t="s">
+      <c r="W65" s="23" t="s">
         <v>24</v>
       </c>
       <c r="X65" s="11" t="s">
@@ -9684,13 +9831,13 @@
       <c r="E66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="G66" s="27" t="s">
+      <c r="G66" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H66" s="28" t="s">
+      <c r="H66" s="20" t="s">
         <v>9</v>
       </c>
       <c r="I66" s="5" t="s">
@@ -9699,13 +9846,13 @@
       <c r="J66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K66" s="29" t="s">
+      <c r="K66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="29" t="s">
+      <c r="L66" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="M66" s="31" t="s">
+      <c r="M66" s="23" t="s">
         <v>9</v>
       </c>
       <c r="N66" s="8" t="s">
@@ -9714,13 +9861,13 @@
       <c r="O66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P66" s="27" t="s">
+      <c r="P66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q66" s="27" t="s">
+      <c r="Q66" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="R66" s="28" t="s">
+      <c r="R66" s="20" t="s">
         <v>25</v>
       </c>
       <c r="S66" s="5" t="s">
@@ -9729,13 +9876,13 @@
       <c r="T66" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="U66" s="29" t="s">
+      <c r="U66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="V66" s="29" t="s">
+      <c r="V66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W66" s="31" t="s">
+      <c r="W66" s="23" t="s">
         <v>25</v>
       </c>
       <c r="X66" s="11" t="s">
@@ -9761,13 +9908,13 @@
       <c r="E67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G67" s="27" t="s">
+      <c r="G67" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="28" t="s">
+      <c r="H67" s="20" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="5" t="s">
@@ -9776,13 +9923,13 @@
       <c r="J67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K67" s="29" t="s">
+      <c r="K67" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L67" s="29" t="s">
+      <c r="L67" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M67" s="31" t="s">
+      <c r="M67" s="23" t="s">
         <v>10</v>
       </c>
       <c r="N67" s="8" t="s">
@@ -9791,13 +9938,13 @@
       <c r="O67" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P67" s="27" t="s">
+      <c r="P67" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q67" s="27" t="s">
+      <c r="Q67" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R67" s="28" t="s">
+      <c r="R67" s="20" t="s">
         <v>26</v>
       </c>
       <c r="S67" s="5" t="s">
@@ -9806,13 +9953,13 @@
       <c r="T67" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="U67" s="29" t="s">
+      <c r="U67" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="V67" s="29" t="s">
+      <c r="V67" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="W67" s="31" t="s">
+      <c r="W67" s="23" t="s">
         <v>26</v>
       </c>
       <c r="X67" s="11" t="s">
@@ -9838,13 +9985,13 @@
       <c r="E68" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G68" s="27" t="s">
+      <c r="G68" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="28" t="s">
+      <c r="H68" s="20" t="s">
         <v>11</v>
       </c>
       <c r="I68" s="5" t="s">
@@ -9853,13 +10000,13 @@
       <c r="J68" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K68" s="29" t="s">
+      <c r="K68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="L68" s="29" t="s">
+      <c r="L68" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M68" s="31" t="s">
+      <c r="M68" s="23" t="s">
         <v>11</v>
       </c>
       <c r="N68" s="8" t="s">
@@ -9868,13 +10015,13 @@
       <c r="O68" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P68" s="27" t="s">
+      <c r="P68" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q68" s="27" t="s">
+      <c r="Q68" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="R68" s="28" t="s">
+      <c r="R68" s="20" t="s">
         <v>42</v>
       </c>
       <c r="S68" s="5" t="s">
@@ -9883,13 +10030,13 @@
       <c r="T68" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U68" s="29" t="s">
+      <c r="U68" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="V68" s="29" t="s">
+      <c r="V68" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="W68" s="31" t="s">
+      <c r="W68" s="23" t="s">
         <v>42</v>
       </c>
       <c r="X68" s="11" t="s">
@@ -9915,13 +10062,13 @@
       <c r="E69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="27" t="s">
+      <c r="G69" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H69" s="20" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -9930,13 +10077,13 @@
       <c r="J69" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K69" s="29" t="s">
+      <c r="K69" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="L69" s="29" t="s">
+      <c r="L69" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M69" s="31" t="s">
+      <c r="M69" s="23" t="s">
         <v>12</v>
       </c>
       <c r="N69" s="8" t="s">
@@ -9945,13 +10092,13 @@
       <c r="O69" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="P69" s="27" t="s">
+      <c r="P69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="Q69" s="27" t="s">
+      <c r="Q69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="R69" s="28" t="s">
+      <c r="R69" s="20" t="s">
         <v>43</v>
       </c>
       <c r="S69" s="5" t="s">
@@ -9960,13 +10107,13 @@
       <c r="T69" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="U69" s="29" t="s">
+      <c r="U69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="V69" s="29" t="s">
+      <c r="V69" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="31" t="s">
+      <c r="W69" s="23" t="s">
         <v>43</v>
       </c>
       <c r="X69" s="11" t="s">
@@ -9992,13 +10139,13 @@
       <c r="E70" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G70" s="27" t="s">
+      <c r="G70" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H70" s="28" t="s">
+      <c r="H70" s="20" t="s">
         <v>13</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -10007,13 +10154,13 @@
       <c r="J70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="L70" s="29" t="s">
+      <c r="L70" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="M70" s="31" t="s">
+      <c r="M70" s="23" t="s">
         <v>13</v>
       </c>
       <c r="N70" s="8" t="s">
@@ -10022,13 +10169,13 @@
       <c r="O70" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P70" s="27" t="s">
+      <c r="P70" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="Q70" s="27" t="s">
+      <c r="Q70" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="R70" s="28" t="s">
+      <c r="R70" s="20" t="s">
         <v>44</v>
       </c>
       <c r="S70" s="5" t="s">
@@ -10037,13 +10184,13 @@
       <c r="T70" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U70" s="29" t="s">
+      <c r="U70" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="V70" s="29" t="s">
+      <c r="V70" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="W70" s="31" t="s">
+      <c r="W70" s="23" t="s">
         <v>44</v>
       </c>
       <c r="X70" s="11" t="s">
@@ -10069,13 +10216,13 @@
       <c r="E71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="27" t="s">
+      <c r="G71" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H71" s="28" t="s">
+      <c r="H71" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -10084,13 +10231,13 @@
       <c r="J71" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="29" t="s">
+      <c r="K71" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="L71" s="29" t="s">
+      <c r="L71" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="M71" s="31" t="s">
+      <c r="M71" s="23" t="s">
         <v>14</v>
       </c>
       <c r="N71" s="8" t="s">
@@ -10099,13 +10246,13 @@
       <c r="O71" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="P71" s="27" t="s">
+      <c r="P71" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q71" s="27" t="s">
+      <c r="Q71" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="R71" s="28" t="s">
+      <c r="R71" s="20" t="s">
         <v>45</v>
       </c>
       <c r="S71" s="5" t="s">
@@ -10114,13 +10261,13 @@
       <c r="T71" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="U71" s="29" t="s">
+      <c r="U71" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="V71" s="29" t="s">
+      <c r="V71" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="W71" s="31" t="s">
+      <c r="W71" s="23" t="s">
         <v>45</v>
       </c>
       <c r="X71" s="11" t="s">
@@ -10146,13 +10293,13 @@
       <c r="E72" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="27" t="s">
+      <c r="G72" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H72" s="28" t="s">
+      <c r="H72" s="20" t="s">
         <v>15</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -10161,13 +10308,13 @@
       <c r="J72" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K72" s="29" t="s">
+      <c r="K72" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="29" t="s">
+      <c r="L72" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M72" s="31" t="s">
+      <c r="M72" s="23" t="s">
         <v>15</v>
       </c>
       <c r="N72" s="8" t="s">
@@ -10176,13 +10323,13 @@
       <c r="O72" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="P72" s="27" t="s">
+      <c r="P72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="Q72" s="27" t="s">
+      <c r="Q72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="R72" s="28" t="s">
+      <c r="R72" s="20" t="s">
         <v>46</v>
       </c>
       <c r="S72" s="5" t="s">
@@ -10191,13 +10338,13 @@
       <c r="T72" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="U72" s="29" t="s">
+      <c r="U72" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="V72" s="29" t="s">
+      <c r="V72" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="W72" s="31" t="s">
+      <c r="W72" s="23" t="s">
         <v>46</v>
       </c>
       <c r="X72" s="11" t="s">
@@ -10223,13 +10370,13 @@
       <c r="E73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="27" t="s">
+      <c r="G73" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H73" s="28" t="s">
+      <c r="H73" s="20" t="s">
         <v>16</v>
       </c>
       <c r="I73" s="5" t="s">
@@ -10238,13 +10385,13 @@
       <c r="J73" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K73" s="29" t="s">
+      <c r="K73" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L73" s="29" t="s">
+      <c r="L73" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M73" s="31" t="s">
+      <c r="M73" s="23" t="s">
         <v>16</v>
       </c>
       <c r="N73" s="8" t="s">
@@ -10253,13 +10400,13 @@
       <c r="O73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="P73" s="27" t="s">
+      <c r="P73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="Q73" s="27" t="s">
+      <c r="Q73" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="R73" s="28" t="s">
+      <c r="R73" s="20" t="s">
         <v>47</v>
       </c>
       <c r="S73" s="5" t="s">
@@ -10268,13 +10415,13 @@
       <c r="T73" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="U73" s="29" t="s">
+      <c r="U73" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="V73" s="29" t="s">
+      <c r="V73" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="W73" s="31" t="s">
+      <c r="W73" s="23" t="s">
         <v>47</v>
       </c>
       <c r="X73" s="11" t="s">
@@ -10300,13 +10447,13 @@
       <c r="E74" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="27" t="s">
+      <c r="G74" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H74" s="28" t="s">
+      <c r="H74" s="20" t="s">
         <v>17</v>
       </c>
       <c r="I74" s="5" t="s">
@@ -10315,13 +10462,13 @@
       <c r="J74" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K74" s="29" t="s">
+      <c r="K74" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L74" s="29" t="s">
+      <c r="L74" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M74" s="31" t="s">
+      <c r="M74" s="23" t="s">
         <v>17</v>
       </c>
       <c r="N74" s="8" t="s">
@@ -10330,13 +10477,13 @@
       <c r="O74" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="P74" s="27" t="s">
+      <c r="P74" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="Q74" s="27" t="s">
+      <c r="Q74" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="R74" s="28" t="s">
+      <c r="R74" s="20" t="s">
         <v>48</v>
       </c>
       <c r="S74" s="5" t="s">
@@ -10345,13 +10492,13 @@
       <c r="T74" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="U74" s="29" t="s">
+      <c r="U74" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="V74" s="29" t="s">
+      <c r="V74" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="W74" s="31" t="s">
+      <c r="W74" s="23" t="s">
         <v>48</v>
       </c>
       <c r="X74" s="11" t="s">
@@ -10377,13 +10524,13 @@
       <c r="E75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G75" s="27" t="s">
+      <c r="G75" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="28" t="s">
+      <c r="H75" s="20" t="s">
         <v>18</v>
       </c>
       <c r="I75" s="5" t="s">
@@ -10392,13 +10539,13 @@
       <c r="J75" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="29" t="s">
+      <c r="K75" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="L75" s="29" t="s">
+      <c r="L75" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M75" s="31" t="s">
+      <c r="M75" s="23" t="s">
         <v>18</v>
       </c>
       <c r="N75" s="8" t="s">
@@ -10407,13 +10554,13 @@
       <c r="O75" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P75" s="27" t="s">
+      <c r="P75" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="Q75" s="27" t="s">
+      <c r="Q75" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R75" s="28" t="s">
+      <c r="R75" s="20" t="s">
         <v>49</v>
       </c>
       <c r="S75" s="5" t="s">
@@ -10422,13 +10569,13 @@
       <c r="T75" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="U75" s="29" t="s">
+      <c r="U75" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="V75" s="29" t="s">
+      <c r="V75" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="W75" s="31" t="s">
+      <c r="W75" s="23" t="s">
         <v>49</v>
       </c>
       <c r="X75" s="11" t="s">
@@ -10440,14 +10587,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="AA3:AL3"/>
+    <mergeCell ref="AA4:AL4"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AA5:AB5"/>
     <mergeCell ref="AC5:AD5"/>
     <mergeCell ref="AE5:AF5"/>
     <mergeCell ref="AG5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AA3:AL3"/>
-    <mergeCell ref="AA4:AL4"/>
-    <mergeCell ref="AK5:AL5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
